--- a/Documents/管道打包测试记录 (自动保存的).xlsx
+++ b/Documents/管道打包测试记录 (自动保存的).xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="打包" sheetId="1" r:id="rId1"/>
+    <sheet name="LOD" sheetId="2" r:id="rId2"/>
+    <sheet name="Box" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="382">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1401,6 +1402,267 @@
   </si>
   <si>
     <t>3568/6512(54.8%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220303_15:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3491/6435(54.2%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_F1_Dev1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12_F1_Dev1,Dev2,Dev3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220304_11:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3073/6019(51.1%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17_F1_Devs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41.6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM TOTAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mesh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEM CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPUInstance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Culling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Steel_Box</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1675/17344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.02/41.6(9.7%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123/17344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.295/41.6(0.7%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoxModel+Prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51/17344</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.122/41.6(0.3%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Batches</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tris</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>416.6K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>833.1K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.9 mb  11.1% 闵行F级余热锅炉.fbx
+ 7.5 mb  4.9% 闵行H级余热锅炉.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>391M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>230M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPU%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>557M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.5M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>148M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>104M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7 mb  11.1% 闵行F级余热锅炉.fbx
+ 0.9 mb  4.9% 闵行H级余热锅炉.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>349M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31.7M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.5M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>342M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>405M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79.7K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94.7M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>142M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>382M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>233M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>455M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,7 +1811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1619,10 +1881,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1646,16 +1916,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>75507</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142494</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>91618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1672,8 +1942,165 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2476500" y="180975"/>
-          <a:ext cx="5542857" cy="3047619"/>
+          <a:off x="2476501" y="180976"/>
+          <a:ext cx="4514850" cy="2482392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="2762251"/>
+          <a:ext cx="5857875" cy="2495440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542001</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>94854</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="5667375"/>
+          <a:ext cx="7390476" cy="3171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589448</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>28186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="9086850"/>
+          <a:ext cx="8819048" cy="3114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>637143</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>47036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7658100" y="819150"/>
+          <a:ext cx="8257143" cy="4714286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1974,10 +2401,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="J43" sqref="J43"/>
+      <selection pane="topRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2011,37 +2438,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47" t="s">
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="48" t="s">
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="47" t="s">
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47" t="s">
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
     </row>
     <row r="2" spans="1:25" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -3524,29 +3951,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>315</v>
       </c>
       <c r="B2" t="s">
         <v>316</v>
+      </c>
+      <c r="M2">
+        <f>174+91+90+83+77+70+58+51+51+50+50+48+47+47+45</f>
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B34" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>321</v>
+      </c>
+      <c r="B54" t="s">
+        <v>322</v>
+      </c>
+      <c r="C54" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3555,4 +4020,364 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="F1" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>344</v>
+      </c>
+      <c r="K2" t="s">
+        <v>345</v>
+      </c>
+      <c r="L2" t="s">
+        <v>347</v>
+      </c>
+      <c r="M2" t="s">
+        <v>349</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>327</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>329</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>354</v>
+      </c>
+      <c r="T2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3">
+        <v>17344</v>
+      </c>
+      <c r="E3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H3" t="s">
+        <v>360</v>
+      </c>
+      <c r="I3" t="s">
+        <v>359</v>
+      </c>
+      <c r="J3">
+        <v>34752</v>
+      </c>
+      <c r="K3" t="s">
+        <v>346</v>
+      </c>
+      <c r="L3" t="s">
+        <v>348</v>
+      </c>
+      <c r="M3">
+        <v>99</v>
+      </c>
+      <c r="N3">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>352</v>
+      </c>
+      <c r="P3" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>356</v>
+      </c>
+      <c r="R3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="49">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="T3" s="49">
+        <v>0.222</v>
+      </c>
+      <c r="U3" s="48" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="47">
+        <v>0.32916666666666666</v>
+      </c>
+      <c r="D4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H4" t="s">
+        <v>365</v>
+      </c>
+      <c r="I4" t="s">
+        <v>362</v>
+      </c>
+      <c r="J4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" t="s">
+        <v>102</v>
+      </c>
+      <c r="M4" t="s">
+        <v>102</v>
+      </c>
+      <c r="N4">
+        <v>47</v>
+      </c>
+      <c r="O4" t="s">
+        <v>367</v>
+      </c>
+      <c r="P4" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>369</v>
+      </c>
+      <c r="R4" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="49">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="T4" s="49">
+        <v>0.191</v>
+      </c>
+      <c r="U4" s="48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I5" t="s">
+        <v>362</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5">
+        <v>51</v>
+      </c>
+      <c r="O5" t="s">
+        <v>373</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>374</v>
+      </c>
+      <c r="R5" t="s">
+        <v>73</v>
+      </c>
+      <c r="S5" s="49">
+        <v>0.315</v>
+      </c>
+      <c r="T5" s="49">
+        <v>0.189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>342</v>
+      </c>
+      <c r="E6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F6" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" t="s">
+        <v>376</v>
+      </c>
+      <c r="I6" t="s">
+        <v>377</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s">
+        <v>378</v>
+      </c>
+      <c r="M6" t="s">
+        <v>102</v>
+      </c>
+      <c r="N6">
+        <v>47</v>
+      </c>
+      <c r="O6" t="s">
+        <v>379</v>
+      </c>
+      <c r="P6" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>381</v>
+      </c>
+      <c r="R6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" s="49">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="T6" s="49">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>